--- a/Test_Sheet.xlsx
+++ b/Test_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutomationPraticePage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB8133-9DBA-40FF-9124-5C151935DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA8158-8686-45D2-A1F7-29E687ED637F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -293,13 +293,46 @@
     <t>TS_001              GUI Handling</t>
   </si>
   <si>
-    <t>Application URL</t>
-  </si>
-  <si>
     <t>Verify the working of GUI Handling Elements</t>
   </si>
   <si>
     <t>P0</t>
+  </si>
+  <si>
+    <t>TS_002     Handling Upload Files</t>
+  </si>
+  <si>
+    <t>TS_003     Handling WebTables</t>
+  </si>
+  <si>
+    <t>TS_004     Handling  Dynamic WebTables</t>
+  </si>
+  <si>
+    <t>TS_005      Handling Tabs and DynamicButton</t>
+  </si>
+  <si>
+    <t>Application URL (https://testautomationpractice.blogspot.com/)</t>
+  </si>
+  <si>
+    <t>Verify the working of Uploading Files</t>
+  </si>
+  <si>
+    <t>Verify the working of WebTables</t>
+  </si>
+  <si>
+    <t>Verify the working of Dynamic Web Tables</t>
+  </si>
+  <si>
+    <t>Verify the working Handling of Tabs and Dynamic Button</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
@@ -711,16 +744,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EB7236-7D65-4965-92C3-C5FA233C5BE2}">
-  <dimension ref="D1:H3"/>
+  <dimension ref="D1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="57.77734375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="23.21875" customWidth="1"/>
@@ -743,24 +776,93 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="H3" s="9">
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
